--- a/数据库最新设计.xlsx
+++ b/数据库最新设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="数据库基本表" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="768">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2681,11 +2681,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>系统描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_system_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业系统清单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪云鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_permission 表增加system_id字段用于区分各个子系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限系统改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子系统获取菜单传入system_id用于筛选菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一站一档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周志远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染因子名录库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴天意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染因子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该系统能够显示多少个企业，在新增企业时多选系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一企一档新增企业时，增加所属系统的多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时登录后，要根据system_id筛选出对应的企业，然后再根据用户进行筛选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警策略定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警策略配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信接入人配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_pollution_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表：sys_pollution_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site_monitor_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表：site_monitor_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airq_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airq_quarter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气质量季度数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年数据由月数据定时计算而来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统清单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_module_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端模块配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户移动端可以看多少模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于版本更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_warn_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_warn_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警策略表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统区域表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_code </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级，1=省，2=市，3=区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的区域表配置（参考：https://my.oschina.net/u/233090/blog/1580337）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义vue组件，同时调整系统中的所有区域字段。采用该组件进行调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典：策略类型 0：离线报警 1：设备故障报警，2：水质超标报警:3：噪声超标报警:4：AQI超标预警:5：AQI超标报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_send_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn_endtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn_starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次/天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统描述</t>
+    <t>策略说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:启用 1：停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到什么级别才开始报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典：0：达到轻度污染（超过二级） 1：达到中度污染（超过三级） 2：达到重度污染（超过四级） 3：达到严重污染（超过五级） 4：AQI爆表（超过六级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点报警策略表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_warn_point_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个站点和一个规则同时唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_warn_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_warn_user_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警短信接收人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点报警短信接收人配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn_userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2693,391 +3073,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0：停用 1：启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>system_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业系统清单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缪云鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_permission 表增加system_id字段用于区分各个子系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限系统改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子系统获取菜单传入system_id用于筛选菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一站一档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周志远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污染因子名录库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴天意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污染因子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该系统能够显示多少个企业，在新增企业时多选系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一企一档新增企业时，增加所属系统的多选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时登录后，要根据system_id筛选出对应的企业，然后再根据用户进行筛选。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警策略定制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警策略配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信接入人配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_pollution_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表：sys_pollution_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site_monitor_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表：site_monitor_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airq_year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airq_quarter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空气质量季度数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年数据由月数据定时计算而来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统清单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_module_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端模块配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户移动端可以看多少模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端版本管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于版本更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_warn_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_warn_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警策略表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统区域表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">parent_code </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级，1=省，2=市，3=区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：停用 1：启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统的区域表配置（参考：https://my.oschina.net/u/233090/blog/1580337）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义vue组件，同时调整系统中的所有区域字段。采用该组件进行调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典：策略类型 0：离线报警 1：设备故障报警，2：水质超标报警:3：噪声超标报警:4：AQI超标预警:5：AQI超标报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发送短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_send_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warn_endtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warn_starttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次/天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_used</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:启用 1：停用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到什么级别才开始报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典：0：达到轻度污染（超过二级） 1：达到中度污染（超过三级） 2：达到重度污染（超过四级） 3：达到严重污染（超过五级） 4：AQI爆表（超过六级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点报警策略表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_warn_point_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个站点和一个规则同时唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_warn_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_warn_user_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警短信接收人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点报警短信接收人配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warn_userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3452,6 +3460,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3484,27 +3513,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3812,8 +3820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C564"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3836,7 +3844,7 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="7"/>
@@ -3855,10 +3863,10 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A4),HYPERLINK("#数据库!A"&amp;MATCH(A4,数据库!A:A,),"跳转"),"")</f>
@@ -3867,10 +3875,10 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A5),HYPERLINK("#数据库!A"&amp;MATCH(A5,数据库!A:A,),"跳转"),"")</f>
@@ -3887,7 +3895,7 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="1" t="str">
@@ -3897,10 +3905,10 @@
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A9),HYPERLINK("#数据库!A"&amp;MATCH(A9,数据库!A:A,),"跳转"),"")</f>
@@ -3909,10 +3917,10 @@
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A10),HYPERLINK("#数据库!A"&amp;MATCH(A10,数据库!A:A,),"跳转"),"")</f>
@@ -4237,10 +4245,10 @@
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C39" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A39),HYPERLINK("#数据库!A"&amp;MATCH(A39,数据库!A:A,),"跳转"),"")</f>
@@ -4249,7 +4257,7 @@
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>213</v>
@@ -4261,7 +4269,7 @@
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="40" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="1" t="str">
@@ -4271,10 +4279,10 @@
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A42),HYPERLINK("#数据库!A"&amp;MATCH(A42,数据库!A:A,),"跳转"),"")</f>
@@ -4283,10 +4291,10 @@
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A43),HYPERLINK("#数据库!A"&amp;MATCH(A43,数据库!A:A,),"跳转"),"")</f>
@@ -4295,10 +4303,10 @@
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A44),HYPERLINK("#数据库!A"&amp;MATCH(A44,数据库!A:A,),"跳转"),"")</f>
@@ -4307,10 +4315,10 @@
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C45" s="1" t="str">
         <f>IF(COUNTIF(数据库!A:A,A45),HYPERLINK("#数据库!A"&amp;MATCH(A45,数据库!A:A,),"跳转"),"")</f>
@@ -4345,7 +4353,7 @@
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>79</v>
@@ -7537,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A738" sqref="A738"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7551,10 +7559,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>661</v>
+        <v>761</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
@@ -7593,22 +7601,22 @@
     </row>
     <row r="5" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7635,36 +7643,36 @@
     </row>
     <row r="11" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7691,13 +7699,13 @@
     </row>
     <row r="17" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>661</v>
@@ -7705,13 +7713,13 @@
     </row>
     <row r="18" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>439</v>
@@ -7719,50 +7727,50 @@
     </row>
     <row r="19" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7789,10 +7797,10 @@
     </row>
     <row r="29" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>669</v>
+        <v>767</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>661</v>
@@ -7800,25 +7808,25 @@
     </row>
     <row r="30" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10654,10 +10662,10 @@
     </row>
     <row r="705" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -10678,79 +10686,79 @@
     </row>
     <row r="707" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D707" s="8"/>
     </row>
     <row r="708" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D708" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="709" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D709" s="8" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="710" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D710" s="8"/>
     </row>
     <row r="711" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D711" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D711" s="8" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="712" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D712" s="8"/>
     </row>
     <row r="713" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D713" s="8"/>
     </row>
     <row r="714" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D714" s="8"/>
     </row>
     <row r="715" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D715" s="8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="716" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10758,10 +10766,10 @@
     </row>
     <row r="717" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -10782,30 +10790,30 @@
     </row>
     <row r="719" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D719" s="8"/>
     </row>
     <row r="720" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D720" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="721" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D721" s="8"/>
     </row>
     <row r="722" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D722" s="8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="723" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10813,10 +10821,10 @@
     </row>
     <row r="724" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -10837,25 +10845,25 @@
     </row>
     <row r="726" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D726" s="8"/>
     </row>
     <row r="727" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D727" s="8"/>
     </row>
     <row r="728" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D728" s="8"/>
     </row>
     <row r="729" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D729" s="8"/>
     </row>
@@ -10864,10 +10872,10 @@
     </row>
     <row r="731" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -10888,19 +10896,19 @@
     </row>
     <row r="733" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D733" s="8"/>
     </row>
     <row r="734" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D734" s="8"/>
     </row>
     <row r="735" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D735" s="8"/>
     </row>
@@ -13123,14 +13131,14 @@
     </row>
     <row r="1042" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1042" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B1042" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C1042" s="3"/>
       <c r="D1042" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1043" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13460,7 +13468,7 @@
     </row>
     <row r="1077" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1077" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B1077" s="3" t="s">
         <v>341</v>
@@ -13823,96 +13831,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="48" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="54" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="43" t="s">
         <v>597</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43" t="s">
         <v>598</v>
       </c>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="54"/>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="54"/>
-      <c r="BP1" s="54"/>
-      <c r="BQ1" s="54"/>
-      <c r="BR1" s="54"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="28">
         <v>27</v>
       </c>
@@ -14113,10 +14121,10 @@
       </c>
     </row>
     <row r="3" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="29"/>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
@@ -14194,7 +14202,7 @@
       <c r="B4" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="55" t="s">
         <v>602</v>
       </c>
       <c r="D4" s="20">
@@ -14275,7 +14283,7 @@
       <c r="B5" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="20">
         <v>2</v>
       </c>
@@ -14354,7 +14362,7 @@
       <c r="B6" s="31" t="s">
         <v>604</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="20">
         <v>1</v>
       </c>
@@ -14433,7 +14441,7 @@
       <c r="B7" s="31" t="s">
         <v>605</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="20">
         <v>1</v>
       </c>
@@ -14512,7 +14520,7 @@
       <c r="B8" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="20">
         <v>2</v>
       </c>
@@ -14591,7 +14599,7 @@
       <c r="B9" s="31" t="s">
         <v>608</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="20">
         <v>1</v>
       </c>
@@ -14670,7 +14678,7 @@
       <c r="B10" s="31" t="s">
         <v>609</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="20">
         <v>1</v>
       </c>
@@ -14749,7 +14757,7 @@
       <c r="B11" s="31" t="s">
         <v>610</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="20">
         <v>1</v>
       </c>
@@ -14828,7 +14836,7 @@
       <c r="B12" s="31" t="s">
         <v>611</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="20">
         <v>1</v>
       </c>
@@ -14907,7 +14915,7 @@
       <c r="B13" s="31" t="s">
         <v>612</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="20">
         <v>1</v>
       </c>
@@ -14986,7 +14994,7 @@
       <c r="B14" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="20">
         <v>1</v>
       </c>
@@ -15381,7 +15389,7 @@
       <c r="B19" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="55" t="s">
         <v>621</v>
       </c>
       <c r="D19" s="20">
@@ -15462,7 +15470,7 @@
       <c r="B20" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="20">
         <v>1</v>
       </c>
@@ -15541,7 +15549,7 @@
       <c r="B21" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="20">
         <v>1</v>
       </c>
@@ -15620,7 +15628,7 @@
       <c r="B22" s="31" t="s">
         <v>624</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="20">
         <v>1</v>
       </c>
@@ -15699,7 +15707,7 @@
       <c r="B23" s="31" t="s">
         <v>625</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="20">
         <v>1</v>
       </c>
@@ -15778,7 +15786,7 @@
       <c r="B24" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="20">
         <v>1</v>
       </c>
@@ -15857,7 +15865,7 @@
       <c r="B25" s="31" t="s">
         <v>627</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="20">
         <v>1</v>
       </c>
@@ -15936,7 +15944,7 @@
       <c r="B26" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="20">
         <v>1</v>
       </c>
@@ -16015,7 +16023,7 @@
       <c r="B27" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="20">
         <v>1</v>
       </c>
@@ -16094,7 +16102,7 @@
       <c r="B28" s="31" t="s">
         <v>630</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="20">
         <v>1</v>
       </c>
@@ -16173,7 +16181,7 @@
       <c r="B29" s="31" t="s">
         <v>631</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="20">
         <v>1</v>
       </c>
@@ -16246,10 +16254,10 @@
       <c r="BS29" s="21"/>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="29"/>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
@@ -16408,7 +16416,7 @@
       <c r="B32" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="58" t="s">
         <v>636</v>
       </c>
       <c r="D32" s="20">
@@ -16489,7 +16497,7 @@
       <c r="B33" s="32" t="s">
         <v>637</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="20">
         <v>1</v>
       </c>
@@ -16568,7 +16576,7 @@
       <c r="B34" s="31" t="s">
         <v>638</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="20">
         <v>1</v>
       </c>
@@ -16647,7 +16655,7 @@
       <c r="B35" s="31" t="s">
         <v>639</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="20">
         <v>1</v>
       </c>
@@ -16726,7 +16734,7 @@
       <c r="B36" s="31" t="s">
         <v>640</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="20">
         <v>1</v>
       </c>
@@ -16805,7 +16813,7 @@
       <c r="B37" s="31" t="s">
         <v>641</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="20">
         <v>1</v>
       </c>
@@ -16884,7 +16892,7 @@
       <c r="B38" s="31" t="s">
         <v>642</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="20">
         <v>1</v>
       </c>
@@ -16963,7 +16971,7 @@
       <c r="B39" s="31" t="s">
         <v>643</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="20">
         <v>1</v>
       </c>
@@ -17042,7 +17050,7 @@
       <c r="B40" s="31" t="s">
         <v>644</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="20">
         <v>1</v>
       </c>
@@ -17121,7 +17129,7 @@
       <c r="B41" s="31" t="s">
         <v>645</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="20">
         <v>1</v>
       </c>
@@ -17200,7 +17208,7 @@
       <c r="B42" s="31" t="s">
         <v>646</v>
       </c>
-      <c r="C42" s="53"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -17279,7 +17287,7 @@
       <c r="B43" s="31" t="s">
         <v>647</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="50" t="s">
         <v>648</v>
       </c>
       <c r="D43" s="20">
@@ -17360,7 +17368,7 @@
       <c r="B44" s="31" t="s">
         <v>649</v>
       </c>
-      <c r="C44" s="44"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="20">
         <v>1</v>
       </c>
@@ -17439,7 +17447,7 @@
       <c r="B45" s="31" t="s">
         <v>650</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="20">
         <v>1</v>
       </c>
@@ -17518,7 +17526,7 @@
       <c r="B46" s="31" t="s">
         <v>651</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="20">
         <v>1</v>
       </c>
@@ -17591,11 +17599,11 @@
       <c r="BS46" s="21"/>
     </row>
     <row r="47" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="53" t="s">
         <v>652</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -17672,7 +17680,7 @@
       <c r="B48" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="C48" s="44"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="20">
         <v>1</v>
       </c>
@@ -17751,7 +17759,7 @@
       <c r="B49" s="31" t="s">
         <v>654</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="20">
         <v>1</v>
       </c>
@@ -17830,7 +17838,7 @@
       <c r="B50" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="20">
         <v>1</v>
       </c>
@@ -17909,7 +17917,7 @@
       <c r="B51" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="20">
         <v>1</v>
       </c>
@@ -19151,6 +19159,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C32:C42"/>
     <mergeCell ref="J1:AM1"/>
     <mergeCell ref="AN1:BR1"/>
     <mergeCell ref="A1:A2"/>
@@ -19158,13 +19173,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C32:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19192,92 +19200,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="46" t="s">
         <v>595</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="43" t="s">
         <v>658</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="54"/>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="28">
         <v>30</v>
       </c>
@@ -19467,13 +19475,13 @@
     </row>
     <row r="3" spans="1:67" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>676</v>
-      </c>
       <c r="C3" s="31" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D3" s="20">
         <v>2</v>
@@ -19544,13 +19552,13 @@
     </row>
     <row r="4" spans="1:67" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D4" s="20">
         <v>2</v>
@@ -19621,10 +19629,10 @@
     </row>
     <row r="5" spans="1:67" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="20">
@@ -19699,10 +19707,10 @@
         <v>600</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -19773,13 +19781,13 @@
     </row>
     <row r="7" spans="1:67" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D7" s="20">
         <v>2</v>
@@ -19850,10 +19858,10 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="20">
@@ -19925,13 +19933,13 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -20002,10 +20010,10 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="20">
@@ -20077,10 +20085,10 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="20">
@@ -20152,10 +20160,10 @@
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="20">
@@ -24194,92 +24202,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="46" t="s">
         <v>595</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="43" t="s">
         <v>658</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="54"/>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="28">
         <v>30</v>
       </c>
